--- a/src/input/data.xlsx
+++ b/src/input/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\projects-2025\python\inventario-v2-ar692\src\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{636F7031-1AC7-4243-8C38-70D81C20A1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D977D5B-1960-481C-B5F1-B7A0B406AF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC0864F6-A2D4-4DFB-ADF9-0730AEA906F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CC0864F6-A2D4-4DFB-ADF9-0730AEA906F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Final</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -475,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664E3970-6AFA-417E-B3B1-F77B466E8C63}">
-  <dimension ref="B1:G25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +491,10 @@
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -508,7 +514,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +531,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -542,7 +554,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +571,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +588,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -584,7 +605,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -601,7 +625,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -618,7 +645,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -632,7 +662,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -646,7 +679,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -660,7 +696,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -674,7 +713,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -691,7 +733,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -705,7 +750,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -719,7 +767,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -733,7 +784,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -753,7 +807,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -767,7 +824,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -784,7 +844,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -798,7 +861,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -815,7 +881,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -832,7 +901,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -849,7 +921,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -866,7 +941,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
